--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblEducationalLevel.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblEducationalLevel.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
-    <sheet name="LookUp" sheetId="2" r:id="rId2"/>
+    <sheet name="DataLookUp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -493,56 +493,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -869,8 +820,8 @@
   </sheetPr>
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,17 +1091,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>EXACT(F3, F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>EXACT(F4, F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F15">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>EXACT(F5, F6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1165,8 +1116,8 @@
   </sheetPr>
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
